--- a/Blog Posts.xlsx
+++ b/Blog Posts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://moxtek0-my.sharepoint.com/personal/david_kang_moxtek_com/Documents/R/20240908 Blog2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{972E0D58-1AFC-704D-B370-131BA2B756E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{972E0D58-1AFC-704D-B370-131BA2B756E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E0E2D9-C314-CD47-BC44-90EA2FDFADC6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{20FAD632-9186-504E-AE8C-6BE29CAD26F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>blog</t>
   </si>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t>Future Dialogue: Ep.7</t>
+  </si>
+  <si>
+    <t>south campus stream</t>
+  </si>
+  <si>
+    <t>daily reminders</t>
+  </si>
+  <si>
+    <t>daniel and lions</t>
+  </si>
+  <si>
+    <t>DK Blog</t>
   </si>
 </sst>
 </file>
@@ -660,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456E621E-8DAD-BC45-A2A0-C6ADD215F3DE}">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,1211 +700,1247 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45674</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>45659</v>
+        <v>45689</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45689</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>45681</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45683</v>
+      </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1">
-        <v>45653</v>
+        <v>45680</v>
       </c>
       <c r="D5" s="1">
-        <v>45658</v>
+        <v>45682</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>45652</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>45632</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45674</v>
+      </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>45651</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45651</v>
+        <v>45674</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>45650</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>45659</v>
+      </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>45646</v>
+        <v>45658</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>45643</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>45653</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45658</v>
+      </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>45638</v>
+        <v>45652</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>45632</v>
+        <v>45651</v>
       </c>
       <c r="D12" s="1">
-        <v>45674</v>
+        <v>45651</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>45624</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45625</v>
-      </c>
+        <v>45650</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>45621</v>
-      </c>
-      <c r="D14" s="1">
-        <v>45640</v>
-      </c>
+        <v>45646</v>
+      </c>
+      <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>45620</v>
-      </c>
-      <c r="D15" s="1">
-        <v>45641</v>
-      </c>
+        <v>45643</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>45616</v>
-      </c>
-      <c r="D16" s="1">
-        <v>45648</v>
-      </c>
+        <v>45638</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>45599</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>45632</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45674</v>
+      </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>45598</v>
+        <v>45624</v>
       </c>
       <c r="D18" s="1">
-        <v>45598</v>
+        <v>45625</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>45575</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>45621</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45640</v>
+      </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>45324</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>45620</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45641</v>
+      </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>45312</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>45616</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45648</v>
+      </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>45302</v>
-      </c>
-      <c r="D22" s="1">
-        <v>45341</v>
-      </c>
+        <v>45599</v>
+      </c>
+      <c r="D22" s="1"/>
       <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>45288</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>45598</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45598</v>
+      </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>45199</v>
-      </c>
-      <c r="D24" s="1">
-        <v>45564</v>
-      </c>
+        <v>45575</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
       <c r="C25" s="1">
-        <v>45210</v>
-      </c>
-      <c r="D25" s="1">
-        <v>45562</v>
-      </c>
+        <v>45324</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
-        <v>45560</v>
-      </c>
-      <c r="D26" s="1">
-        <v>45560</v>
-      </c>
+        <v>45312</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1">
-        <v>45549</v>
+        <v>45302</v>
       </c>
       <c r="D27" s="1">
-        <v>45549</v>
+        <v>45341</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1">
-        <v>45547</v>
-      </c>
-      <c r="D28" s="1">
-        <v>45547</v>
-      </c>
+        <v>45288</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>45538</v>
+        <v>45199</v>
       </c>
       <c r="D29" s="1">
-        <v>45540</v>
+        <v>45564</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
       <c r="C30" s="1">
-        <v>45524</v>
+        <v>45210</v>
       </c>
       <c r="D30" s="1">
-        <v>45528</v>
+        <v>45562</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
-        <v>45516</v>
+        <v>45560</v>
       </c>
       <c r="D31" s="1">
-        <v>45516</v>
+        <v>45560</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>45497</v>
+        <v>45549</v>
       </c>
       <c r="D32" s="1">
-        <v>45497</v>
+        <v>45549</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>45493</v>
+        <v>45547</v>
       </c>
       <c r="D33" s="1">
-        <v>45493</v>
+        <v>45547</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="1">
-        <v>45477</v>
+        <v>45538</v>
       </c>
       <c r="D34" s="1">
-        <v>45477</v>
+        <v>45540</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1">
-        <v>45476</v>
+        <v>45524</v>
       </c>
       <c r="D35" s="1">
-        <v>45476</v>
+        <v>45528</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="1">
-        <v>45459</v>
+        <v>45516</v>
       </c>
       <c r="D36" s="1">
-        <v>45459</v>
+        <v>45516</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>45458</v>
+        <v>45497</v>
       </c>
       <c r="D37" s="1">
-        <v>45458</v>
+        <v>45497</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="1">
-        <v>45453</v>
+        <v>45493</v>
       </c>
       <c r="D38" s="1">
-        <v>45453</v>
+        <v>45493</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="1">
-        <v>45450</v>
+        <v>45477</v>
       </c>
       <c r="D39" s="1">
-        <v>45451</v>
+        <v>45477</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="1">
-        <v>45449</v>
+        <v>45476</v>
       </c>
       <c r="D40" s="1">
-        <v>45450</v>
+        <v>45476</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="1">
-        <v>45442</v>
+        <v>45459</v>
       </c>
       <c r="D41" s="1">
-        <v>45449</v>
+        <v>45459</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="1">
-        <v>45439</v>
+        <v>45458</v>
       </c>
       <c r="D42" s="1">
-        <v>45439</v>
+        <v>45458</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>34</v>
       </c>
       <c r="C43" s="1">
-        <v>45437</v>
+        <v>45453</v>
       </c>
       <c r="D43" s="1">
-        <v>45437</v>
+        <v>45453</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1">
-        <v>45423</v>
+        <v>45450</v>
       </c>
       <c r="D44" s="1">
-        <v>45423</v>
+        <v>45451</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1">
-        <v>45397</v>
+        <v>45449</v>
       </c>
       <c r="D45" s="1">
-        <v>45399</v>
+        <v>45450</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1">
-        <v>45385</v>
+        <v>45442</v>
       </c>
       <c r="D46" s="1">
-        <v>45388</v>
+        <v>45449</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C47" s="1">
-        <v>45374</v>
+        <v>45439</v>
       </c>
       <c r="D47" s="1">
-        <v>45374</v>
+        <v>45439</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1">
-        <v>45350</v>
+        <v>45437</v>
       </c>
       <c r="D48" s="1">
-        <v>45363</v>
+        <v>45437</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
       <c r="C49" s="1">
-        <v>45347</v>
+        <v>45423</v>
       </c>
       <c r="D49" s="1">
-        <v>45348</v>
+        <v>45423</v>
       </c>
       <c r="E49" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="1">
-        <v>45346</v>
+        <v>45397</v>
       </c>
       <c r="D50" s="1">
-        <v>45347</v>
+        <v>45399</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="1">
-        <v>45341</v>
+        <v>45385</v>
       </c>
       <c r="D51" s="1">
-        <v>45346</v>
+        <v>45388</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1">
-        <v>45338</v>
+        <v>45374</v>
       </c>
       <c r="D52" s="1">
-        <v>45338</v>
+        <v>45374</v>
       </c>
       <c r="E52" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1">
-        <v>45336</v>
+        <v>45350</v>
       </c>
       <c r="D53" s="1">
-        <v>45336</v>
+        <v>45363</v>
       </c>
       <c r="E53" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C54" s="1">
-        <v>40951</v>
+        <v>45347</v>
       </c>
       <c r="D54" s="1">
-        <v>45335</v>
+        <v>45348</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1">
-        <v>45289</v>
+        <v>45346</v>
       </c>
       <c r="D55" s="1">
-        <v>45289</v>
+        <v>45347</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
       <c r="C56" s="1">
-        <v>45286</v>
+        <v>45341</v>
       </c>
       <c r="D56" s="1">
-        <v>45286</v>
+        <v>45346</v>
       </c>
       <c r="E56" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="1">
-        <v>45283</v>
+        <v>45338</v>
       </c>
       <c r="D57" s="1">
-        <v>45283</v>
+        <v>45338</v>
       </c>
       <c r="E57" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C58" s="1">
-        <v>45268</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>45336</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45336</v>
+      </c>
+      <c r="E58" t="s">
+        <v>71</v>
+      </c>
       <c r="F58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="1">
+        <v>40951</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45335</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45289</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45289</v>
+      </c>
+      <c r="E60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45286</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45286</v>
+      </c>
+      <c r="E61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45283</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45283</v>
+      </c>
+      <c r="E62" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45268</v>
+      </c>
       <c r="D63" s="1"/>
+      <c r="F63" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>74</v>
+      </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>75</v>
+      </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>76</v>
+      </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>77</v>
+      </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>78</v>
+      </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
@@ -2215,6 +2263,26 @@
     <row r="176" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Blog Posts.xlsx
+++ b/Blog Posts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://moxtek0-my.sharepoint.com/personal/david_kang_moxtek_com/Documents/R/20240908 Blog2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{972E0D58-1AFC-704D-B370-131BA2B756E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E0E2D9-C314-CD47-BC44-90EA2FDFADC6}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{972E0D58-1AFC-704D-B370-131BA2B756E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73B9303B-5827-A345-A8DD-A522F3E80EAC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{20FAD632-9186-504E-AE8C-6BE29CAD26F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{20FAD632-9186-504E-AE8C-6BE29CAD26F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
   <si>
     <t>blog</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>DK Blog</t>
+  </si>
+  <si>
+    <t>wealth of a society</t>
+  </si>
+  <si>
+    <t>birth of grandchildren</t>
+  </si>
+  <si>
+    <t>participants in life</t>
   </si>
 </sst>
 </file>
@@ -353,6 +362,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456E621E-8DAD-BC45-A2A0-C6ADD215F3DE}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,7 +696,7 @@
     <col min="3" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -700,1247 +713,1211 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45268</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
-        <v>45689</v>
+        <v>45283</v>
       </c>
       <c r="D3" s="1">
-        <v>45689</v>
+        <v>45283</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
-        <v>45681</v>
+        <v>45286</v>
       </c>
       <c r="D4" s="1">
-        <v>45683</v>
+        <v>45286</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
-        <v>45680</v>
+        <v>45289</v>
       </c>
       <c r="D5" s="1">
-        <v>45682</v>
+        <v>45289</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
-        <v>45632</v>
+        <v>40951</v>
       </c>
       <c r="D6" s="1">
-        <v>45674</v>
+        <v>45335</v>
       </c>
       <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45336</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45336</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45338</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45338</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45341</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45346</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45346</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45347</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45347</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45348</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45350</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45363</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45374</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45374</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45385</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45388</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45674</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45659</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45658</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45653</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45658</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45652</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45651</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45651</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45650</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45646</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>8</v>
-      </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1">
-        <v>45643</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>45397</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45399</v>
+      </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1">
-        <v>45638</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>45423</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45423</v>
+      </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
-        <v>45632</v>
+        <v>45437</v>
       </c>
       <c r="D17" s="1">
-        <v>45674</v>
+        <v>45437</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
-        <v>45624</v>
+        <v>45439</v>
       </c>
       <c r="D18" s="1">
-        <v>45625</v>
+        <v>45439</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
-        <v>45621</v>
+        <v>45442</v>
       </c>
       <c r="D19" s="1">
-        <v>45640</v>
+        <v>45449</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
-        <v>45620</v>
+        <v>45449</v>
       </c>
       <c r="D20" s="1">
-        <v>45641</v>
+        <v>45450</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
-        <v>45616</v>
+        <v>45450</v>
       </c>
       <c r="D21" s="1">
-        <v>45648</v>
+        <v>45451</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1">
-        <v>45599</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>45453</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45453</v>
+      </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1">
-        <v>45598</v>
+        <v>45458</v>
       </c>
       <c r="D23" s="1">
-        <v>45598</v>
+        <v>45458</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1">
-        <v>45575</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>45459</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45459</v>
+      </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
-        <v>45324</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>45476</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45476</v>
+      </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
-        <v>45312</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>45477</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45477</v>
+      </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>45302</v>
+        <v>45493</v>
       </c>
       <c r="D27" s="1">
-        <v>45341</v>
+        <v>45493</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
-        <v>45288</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>45497</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45497</v>
+      </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1">
-        <v>45199</v>
+        <v>45516</v>
       </c>
       <c r="D29" s="1">
-        <v>45564</v>
+        <v>45516</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1">
-        <v>45210</v>
+        <v>45524</v>
       </c>
       <c r="D30" s="1">
-        <v>45562</v>
+        <v>45528</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1">
-        <v>45560</v>
+        <v>45538</v>
       </c>
       <c r="D31" s="1">
-        <v>45560</v>
+        <v>45540</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>45549</v>
+        <v>45547</v>
       </c>
       <c r="D32" s="1">
-        <v>45549</v>
+        <v>45547</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>45547</v>
+        <v>45549</v>
       </c>
       <c r="D33" s="1">
-        <v>45547</v>
+        <v>45549</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1">
-        <v>45538</v>
+        <v>45560</v>
       </c>
       <c r="D34" s="1">
-        <v>45540</v>
+        <v>45560</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
       <c r="C35" s="1">
-        <v>45524</v>
+        <v>45210</v>
       </c>
       <c r="D35" s="1">
-        <v>45528</v>
+        <v>45562</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
-        <v>45516</v>
+        <v>45199</v>
       </c>
       <c r="D36" s="1">
-        <v>45516</v>
+        <v>45564</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1">
-        <v>45497</v>
-      </c>
-      <c r="D37" s="1">
-        <v>45497</v>
-      </c>
+        <v>45288</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1">
-        <v>45493</v>
+        <v>45302</v>
       </c>
       <c r="D38" s="1">
-        <v>45493</v>
+        <v>45341</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1">
-        <v>45477</v>
-      </c>
-      <c r="D39" s="1">
-        <v>45477</v>
-      </c>
+        <v>45312</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C40" s="1">
-        <v>45476</v>
-      </c>
-      <c r="D40" s="1">
-        <v>45476</v>
-      </c>
+        <v>45324</v>
+      </c>
+      <c r="D40" s="1"/>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>45459</v>
-      </c>
-      <c r="D41" s="1">
-        <v>45459</v>
-      </c>
+        <v>45575</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>45458</v>
+        <v>45598</v>
       </c>
       <c r="D42" s="1">
-        <v>45458</v>
+        <v>45598</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D43" s="1">
-        <v>45453</v>
-      </c>
+        <v>45599</v>
+      </c>
+      <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>45450</v>
+        <v>45616</v>
       </c>
       <c r="D44" s="1">
-        <v>45451</v>
+        <v>45648</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>45449</v>
+        <v>45620</v>
       </c>
       <c r="D45" s="1">
-        <v>45450</v>
+        <v>45641</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>45442</v>
+        <v>45621</v>
       </c>
       <c r="D46" s="1">
-        <v>45449</v>
+        <v>45640</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>45439</v>
+        <v>45624</v>
       </c>
       <c r="D47" s="1">
-        <v>45439</v>
+        <v>45625</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>45437</v>
-      </c>
-      <c r="D48" s="1">
-        <v>45437</v>
-      </c>
+        <v>45638</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45643</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45646</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="F48" t="s">
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45650</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45651</v>
+      </c>
+      <c r="D52" s="1">
+        <v>45651</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45652</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45653</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45658</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="C49" s="1">
-        <v>45423</v>
-      </c>
-      <c r="D49" s="1">
-        <v>45423</v>
-      </c>
-      <c r="E49" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>43</v>
-      </c>
-      <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="1">
-        <v>45397</v>
-      </c>
-      <c r="D50" s="1">
-        <v>45399</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45658</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="F50" t="s">
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45659</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>44</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="1">
-        <v>45385</v>
-      </c>
-      <c r="D51" s="1">
-        <v>45388</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45674</v>
+      </c>
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="F51" t="s">
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45632</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45674</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>45</v>
-      </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="1">
-        <v>45374</v>
-      </c>
-      <c r="D52" s="1">
-        <v>45374</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45680</v>
+      </c>
+      <c r="D59" s="1">
+        <v>45682</v>
+      </c>
+      <c r="E59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="F52" t="s">
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45681</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45683</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>46</v>
-      </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="1">
-        <v>45350</v>
-      </c>
-      <c r="D53" s="1">
-        <v>45363</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45689</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45689</v>
+      </c>
+      <c r="E61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="F53" t="s">
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45683</v>
+      </c>
+      <c r="D62" s="1">
+        <v>45694</v>
+      </c>
+      <c r="E62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>47</v>
-      </c>
-      <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="1">
-        <v>45347</v>
-      </c>
-      <c r="D54" s="1">
-        <v>45348</v>
-      </c>
-      <c r="E54" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45696</v>
+      </c>
+      <c r="D63" s="1">
+        <v>45696</v>
+      </c>
+      <c r="E63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>48</v>
-      </c>
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="1">
-        <v>45346</v>
-      </c>
-      <c r="D55" s="1">
-        <v>45347</v>
-      </c>
-      <c r="E55" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>49</v>
-      </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="1">
-        <v>45341</v>
-      </c>
-      <c r="D56" s="1">
-        <v>45346</v>
-      </c>
-      <c r="E56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>50</v>
-      </c>
-      <c r="B57" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="1">
-        <v>45338</v>
-      </c>
-      <c r="D57" s="1">
-        <v>45338</v>
-      </c>
-      <c r="E57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>51</v>
-      </c>
-      <c r="B58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="1">
-        <v>45336</v>
-      </c>
-      <c r="D58" s="1">
-        <v>45336</v>
-      </c>
-      <c r="E58" t="s">
-        <v>71</v>
-      </c>
-      <c r="F58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>52</v>
-      </c>
-      <c r="B59" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="1">
-        <v>40951</v>
-      </c>
-      <c r="D59" s="1">
-        <v>45335</v>
-      </c>
-      <c r="E59" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>53</v>
-      </c>
-      <c r="B60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="1">
-        <v>45289</v>
-      </c>
-      <c r="D60" s="1">
-        <v>45289</v>
-      </c>
-      <c r="E60" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>54</v>
-      </c>
-      <c r="B61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="1">
-        <v>45286</v>
-      </c>
-      <c r="D61" s="1">
-        <v>45286</v>
-      </c>
-      <c r="E61" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>55</v>
-      </c>
-      <c r="B62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="1">
-        <v>45283</v>
-      </c>
-      <c r="D62" s="1">
-        <v>45283</v>
-      </c>
-      <c r="E62" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>56</v>
-      </c>
-      <c r="B63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="1">
-        <v>45268</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="F63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>57</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>58</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>59</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>60</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>61</v>
-      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45704</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45704</v>
+      </c>
+      <c r="E64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>62</v>
-      </c>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>63</v>
-      </c>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>64</v>
-      </c>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>65</v>
-      </c>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>66</v>
-      </c>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>67</v>
-      </c>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>68</v>
-      </c>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>69</v>
-      </c>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>70</v>
-      </c>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>71</v>
-      </c>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>72</v>
-      </c>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>73</v>
-      </c>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>74</v>
-      </c>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>75</v>
-      </c>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>76</v>
-      </c>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>77</v>
-      </c>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>78</v>
-      </c>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
@@ -2212,79 +2189,10 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-    </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-    </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E67">
+    <sortCondition descending="1" ref="A2:A67"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>